--- a/UI/DataCollected.xlsx
+++ b/UI/DataCollected.xlsx
@@ -478,112 +478,112 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.03000000023701e-05</v>
+        <v>0.001815699999999865</v>
       </c>
       <c r="C2">
-        <v>3.530000000040445e-05</v>
+        <v>1.819999999952415e-05</v>
       </c>
       <c r="D2">
-        <v>3.559999999680485e-05</v>
+        <v>1.979999999957016e-05</v>
       </c>
       <c r="E2">
-        <v>3.499999999689862e-05</v>
+        <v>2.10000000002708e-05</v>
       </c>
       <c r="F2">
-        <v>3.05999999987705e-05</v>
+        <v>2.000000000013102e-05</v>
       </c>
       <c r="G2">
-        <v>2.980000000007976e-05</v>
+        <v>1.970000000017791e-05</v>
       </c>
       <c r="H2">
-        <v>2.969999999891115e-05</v>
+        <v>3.439999999965693e-05</v>
       </c>
       <c r="I2">
-        <v>3.300000000194814e-05</v>
+        <v>2.069999999942951e-05</v>
       </c>
       <c r="J2">
-        <v>7.730000000094606e-05</v>
+        <v>2.049999999975682e-05</v>
       </c>
       <c r="K2">
-        <v>3.65999999942801e-05</v>
+        <v>1.960000000078566e-05</v>
       </c>
       <c r="L2">
-        <v>2.980000000007976e-05</v>
+        <v>1.85999999997577e-05</v>
       </c>
       <c r="M2">
-        <v>2.980000000007976e-05</v>
+        <v>1.979999999957016e-05</v>
       </c>
       <c r="N2">
-        <v>2.980000000007976e-05</v>
+        <v>2.119999999994349e-05</v>
       </c>
       <c r="O2">
-        <v>0.1465290999999986</v>
+        <v>0.1611973000000004</v>
       </c>
       <c r="P2">
-        <v>0.3873682000000009</v>
+        <v>0.3580630000000005</v>
       </c>
       <c r="Q2">
-        <v>0.1600179000000033</v>
+        <v>0.1650079</v>
       </c>
       <c r="R2">
-        <v>0.2930719000000011</v>
+        <v>0.2951154999999996</v>
       </c>
       <c r="S2">
-        <v>0.4050140000000049</v>
+        <v>0.3999806000000001</v>
       </c>
       <c r="T2">
-        <v>0.1668937999999969</v>
+        <v>0.2227791999999997</v>
       </c>
       <c r="U2">
-        <v>0.4389196999999996</v>
+        <v>0.3260830000000006</v>
       </c>
       <c r="V2">
-        <v>0.1830138999999988</v>
+        <v>0.2259378000000005</v>
       </c>
       <c r="W2">
-        <v>0.1288241000000028</v>
+        <v>0.1451754999999997</v>
       </c>
       <c r="X2">
-        <v>0.1452331000000058</v>
+        <v>0.2119872999999997</v>
       </c>
       <c r="Y2">
-        <v>0.3086831999999973</v>
+        <v>0.4197613000000002</v>
       </c>
       <c r="Z2">
-        <v>0.1511506000000011</v>
+        <v>0.1430259000000005</v>
       </c>
       <c r="AA2">
-        <v>0.6940513999999993</v>
+        <v>0.6861429000000001</v>
       </c>
       <c r="AB2">
-        <v>0.8405944999999981</v>
+        <v>0.8182653999999996</v>
       </c>
       <c r="AC2">
-        <v>0.8582348000000017</v>
+        <v>0.8601844999999999</v>
       </c>
       <c r="AD2">
-        <v>0.8651047999999975</v>
+        <v>0.9179703999999997</v>
       </c>
       <c r="AE2">
-        <v>1.010950600000001</v>
+        <v>0.9489375999999998</v>
       </c>
       <c r="AF2">
-        <v>0.7889971999999972</v>
+        <v>0.7748952999999998</v>
       </c>
       <c r="AG2">
-        <v>0.7509342999999973</v>
+        <v>0.6972915000000004</v>
       </c>
       <c r="AH2">
-        <v>0.4572478000000046</v>
+        <v>0.5831799999999996</v>
       </c>
       <c r="AI2">
-        <v>0.5829139000000012</v>
+        <v>0.7770025999999994</v>
       </c>
       <c r="AJ2">
-        <v>0.6051928999999987</v>
+        <v>0.7748537000000004</v>
       </c>
       <c r="AK2">
-        <v>2.915182100000003</v>
+        <v>3.0761835</v>
       </c>
     </row>
   </sheetData>
